--- a/Docs/Requirements.xlsx
+++ b/Docs/Requirements.xlsx
@@ -490,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -507,11 +507,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -522,6 +592,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A3:D20" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+  <autoFilter ref="A3:D20"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" name="Statement" dataDxfId="3"/>
+    <tableColumn id="3" name="Type" dataDxfId="1"/>
+    <tableColumn id="4" name="Comments" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="F3:I63" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="F3:I63"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" name="Statement"/>
+    <tableColumn id="3" name="Type" dataDxfId="0"/>
+    <tableColumn id="4" name="Comments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -789,45 +885,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" customWidth="1"/>
     <col min="7" max="7" width="52.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="9"/>
     <col min="9" max="9" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -836,7 +934,7 @@
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -849,7 +947,7 @@
       <c r="G3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -863,7 +961,7 @@
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="3"/>
@@ -874,7 +972,7 @@
       <c r="G4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="3"/>
@@ -886,7 +984,7 @@
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="3"/>
@@ -897,19 +995,19 @@
       <c r="G5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="3"/>
@@ -920,7 +1018,7 @@
       <c r="G6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="3"/>
@@ -932,7 +1030,7 @@
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="3"/>
@@ -943,7 +1041,7 @@
       <c r="G7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="3"/>
@@ -955,7 +1053,7 @@
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3"/>
@@ -966,7 +1064,7 @@
       <c r="G8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="3"/>
@@ -978,7 +1076,7 @@
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3"/>
@@ -989,7 +1087,7 @@
       <c r="G9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="3"/>
@@ -1001,7 +1099,7 @@
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3"/>
@@ -1012,7 +1110,7 @@
       <c r="G10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="3"/>
@@ -1024,7 +1122,7 @@
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="3"/>
@@ -1035,7 +1133,7 @@
       <c r="G11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I11" s="3"/>
@@ -1047,7 +1145,7 @@
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3"/>
@@ -1058,7 +1156,7 @@
       <c r="G12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="3"/>
@@ -1070,7 +1168,7 @@
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="3"/>
@@ -1081,7 +1179,7 @@
       <c r="G13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="3"/>
@@ -1093,7 +1191,7 @@
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3"/>
@@ -1104,7 +1202,7 @@
       <c r="G14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="3"/>
@@ -1116,7 +1214,7 @@
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="3"/>
@@ -1127,19 +1225,19 @@
       <c r="G15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="3"/>
@@ -1150,7 +1248,7 @@
       <c r="G16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I16" s="3"/>
@@ -1162,7 +1260,7 @@
       <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="3"/>
@@ -1173,7 +1271,7 @@
       <c r="G17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I17" s="3"/>
@@ -1185,7 +1283,7 @@
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="3"/>
@@ -1196,19 +1294,19 @@
       <c r="G18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="3"/>
@@ -1219,19 +1317,19 @@
       <c r="G19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3"/>
@@ -1242,7 +1340,7 @@
       <c r="G20" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="3"/>
@@ -1250,7 +1348,6 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -1259,7 +1356,7 @@
       <c r="G21" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="3" t="s">
@@ -1269,7 +1366,6 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
@@ -1278,7 +1374,7 @@
       <c r="G22" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I22" s="3" t="s">
@@ -1288,7 +1384,6 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
@@ -1297,7 +1392,7 @@
       <c r="G23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I23" s="3" t="s">
@@ -1307,7 +1402,6 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
@@ -1316,7 +1410,7 @@
       <c r="G24" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I24" s="3" t="s">
@@ -1326,7 +1420,6 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
@@ -1335,7 +1428,7 @@
       <c r="G25" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I25" s="3"/>
@@ -1343,7 +1436,6 @@
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
@@ -1352,7 +1444,7 @@
       <c r="G26" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I26" s="3"/>
@@ -1360,7 +1452,6 @@
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
@@ -1369,7 +1460,7 @@
       <c r="G27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I27" s="3"/>
@@ -1377,7 +1468,6 @@
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
@@ -1386,7 +1476,7 @@
       <c r="G28" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I28" s="3"/>
@@ -1394,7 +1484,6 @@
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
@@ -1403,7 +1492,7 @@
       <c r="G29" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I29" s="3"/>
@@ -1411,7 +1500,6 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
@@ -1420,7 +1508,7 @@
       <c r="G30" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I30" s="3"/>
@@ -1428,7 +1516,6 @@
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
@@ -1437,7 +1524,7 @@
       <c r="G31" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I31" s="3"/>
@@ -1445,7 +1532,6 @@
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
@@ -1454,7 +1540,7 @@
       <c r="G32" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="3"/>
@@ -1462,7 +1548,6 @@
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
@@ -1471,7 +1556,7 @@
       <c r="G33" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I33" s="3"/>
@@ -1483,7 +1568,7 @@
       <c r="G34" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1494,7 +1579,7 @@
       <c r="G35" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1505,7 +1590,7 @@
       <c r="G36" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1516,7 +1601,7 @@
       <c r="G37" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1527,7 +1612,7 @@
       <c r="G38" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1538,7 +1623,7 @@
       <c r="G39" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1549,7 +1634,7 @@
       <c r="G40" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1560,7 +1645,7 @@
       <c r="G41" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1571,7 +1656,7 @@
       <c r="G42" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1582,7 +1667,7 @@
       <c r="G43" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1590,7 +1675,7 @@
       <c r="F44" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1598,7 +1683,7 @@
       <c r="F45" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1606,7 +1691,7 @@
       <c r="F46" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1614,7 +1699,7 @@
       <c r="F47" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1622,7 +1707,7 @@
       <c r="F48" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1630,7 +1715,7 @@
       <c r="F49" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1638,7 +1723,7 @@
       <c r="F50" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1646,7 +1731,7 @@
       <c r="F51" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1654,7 +1739,7 @@
       <c r="F52" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1662,7 +1747,7 @@
       <c r="F53" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1670,7 +1755,7 @@
       <c r="F54" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1678,7 +1763,7 @@
       <c r="F55" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1686,7 +1771,7 @@
       <c r="F56" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1694,7 +1779,7 @@
       <c r="F57" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1702,7 +1787,7 @@
       <c r="F58" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1710,7 +1795,7 @@
       <c r="F59" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1718,7 +1803,7 @@
       <c r="F60" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1726,7 +1811,7 @@
       <c r="F61" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1734,7 +1819,7 @@
       <c r="F62" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1742,16 +1827,22 @@
       <c r="F63" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="7" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>